--- a/data/nik.xlsx
+++ b/data/nik.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AUTOMATION_TOOLS\WebDriverIO\inputnik\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yao5\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -348,7 +348,7 @@
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:A23"/>
+      <selection activeCell="A5" sqref="A5:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -377,44 +377,28 @@
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>3230200000000040</v>
-      </c>
+      <c r="A5" s="1"/>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>3230200000000050</v>
-      </c>
+      <c r="A6" s="1"/>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>3230200000000060</v>
-      </c>
+      <c r="A7" s="1"/>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>3230200000000070</v>
-      </c>
+      <c r="A8" s="1"/>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>3230200000000080</v>
-      </c>
+      <c r="A9" s="1"/>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>3230200000000090</v>
-      </c>
+      <c r="A10" s="1"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>3230200000000100</v>
-      </c>
+      <c r="A11" s="1"/>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>3230200000000110</v>
-      </c>
+      <c r="A12" s="1"/>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
